--- a/Subsea_Well_Plan1.xlsx
+++ b/Subsea_Well_Plan1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,106 +932,106 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Make Up MWD BHA</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E19" t="n">
-        <v>1.61</v>
+        <v>4.58</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="G19" t="n">
-        <v>7.34</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Run 26'' x 42'' BHA</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>2115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9396135264378762</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E20" t="n">
-        <v>7.45</v>
+        <v>4.98</v>
       </c>
       <c r="F20" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="G20" t="n">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Install_Ball_Valves_Slope_Indicator_Latch_Mud_Mat</t>
+          <t>Drill 42''</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D21" t="n">
-        <v>0.535714285683103</v>
+        <v>14.80000001414679</v>
       </c>
       <c r="E21" t="n">
-        <v>1.87</v>
+        <v>5.41</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="G21" t="n">
-        <v>7.73</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tripping_36_Casing_on_Landing_String</t>
+          <t>Circulate, POOH</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1485</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>274.3454105906515</v>
+        <v>0.6691231552068618</v>
       </c>
       <c r="E22" t="n">
-        <v>5.41</v>
+        <v>1.49</v>
       </c>
       <c r="F22" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="G22" t="n">
         <v>7.96</v>
@@ -1040,2323 +1040,2323 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tripping_36_Casing_on_Landing_String_OH</t>
+          <t>Wait for Soaking &amp; RIH</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>46.66666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G23" t="n">
-        <v>8.52</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jet Conductor Casing</t>
+          <t>Circulation</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>1204.630455573312</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="E24" t="n">
-        <v>0.11</v>
+        <v>50.59</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="G24" t="n">
-        <v>8.52</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jet 36'' Casing</t>
+          <t>Drill 42'' Hole</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wait on soaking</t>
+          <t>POOH</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2195</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08</v>
+        <v>5.17</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G25" t="n">
-        <v>8.529999999999999</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Drill 26''</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>14.34855769203052</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E26" t="n">
-        <v>38.33</v>
+        <v>1.61</v>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>10.12</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wiper Trip</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04143049962285366</v>
+        <v>0.9396135264378762</v>
       </c>
       <c r="E27" t="n">
-        <v>24.14</v>
+        <v>7.45</v>
       </c>
       <c r="F27" t="n">
-        <v>1.01</v>
+        <v>0.31</v>
       </c>
       <c r="G27" t="n">
-        <v>11.13</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Circulate</t>
+          <t>Install_Ball_Valves_Slope_Indicator_Latch_Mud_Mat</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3096.194321283745</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1428.571428571429</v>
+        <v>0.535714285683103</v>
       </c>
       <c r="E28" t="n">
-        <v>2.17</v>
+        <v>1.87</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G28" t="n">
-        <v>11.22</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POOH 26'' BHA</t>
+          <t>Tripping_36_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2745</v>
+        <v>1485</v>
       </c>
       <c r="D29" t="n">
-        <v>424.6051882298284</v>
+        <v>274.3454105906515</v>
       </c>
       <c r="E29" t="n">
-        <v>6.46</v>
+        <v>5.41</v>
       </c>
       <c r="F29" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="G29" t="n">
-        <v>11.49</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Break Off BHA</t>
+          <t>Tripping_36_Casing_on_Landing_String_OH</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>630</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2439909296862088</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="E30" t="n">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>11.66</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rig_up_for_Casing</t>
+          <t>Circulation</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="G31" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Run_Check_Float_Fun_20_Casing</t>
+          <t>Cement Conductor Casing</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G32" t="n">
-        <v>11.85</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Run 20'' Casing</t>
+          <t>Wait on Cement</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>3.136363635262502</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E33" t="n">
-        <v>16.9</v>
+        <v>18</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="G33" t="n">
-        <v>12.55</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M_Up_HPWHH_Run_Inner_String_Engage_Cart_to_HPWHH</t>
+          <t>Release Cart Tool and POOH</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2115</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2352941176921748</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E34" t="n">
-        <v>4.25</v>
+        <v>4.98</v>
       </c>
       <c r="F34" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="G34" t="n">
-        <v>12.73</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String</t>
+          <t>B_Off_Cart_Tool_PO_Inner_String</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1485</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>206.1859351426755</v>
+        <v>0.3999999998696148</v>
       </c>
       <c r="E35" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G35" t="n">
-        <v>13.03</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String_OH</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>132.7857140791436</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E36" t="n">
-        <v>4.74</v>
+        <v>1.61</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>13.23</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cementing 20'' Casing</t>
+          <t>Make Up Mud Motor, MWD BHA</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.166666666666667</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>4.58</v>
       </c>
       <c r="F37" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="G37" t="n">
-        <v>13.48</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wait on Cement</t>
+          <t>RIH 26'' BHA</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2145</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08333333333333333</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>5.05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="G38" t="n">
-        <v>13.98</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Release_Cart_from_HPWHH</t>
+          <t>RIH with wash down and Tag cement</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>3.890410942314198</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E39" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="F39" t="n">
         <v>0.01</v>
       </c>
       <c r="G39" t="n">
-        <v>13.99</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>POOH Cart Tool to surface</t>
+          <t>Drill Cement &amp; clear rat hole</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2115</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>424.6051882298284</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>4.98</v>
+        <v>8.82</v>
       </c>
       <c r="F40" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="G40" t="n">
-        <v>14.19</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rig_up_for_riser_handling</t>
+          <t>Drill 26''</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1656565656386063</v>
+        <v>14.34855769203052</v>
       </c>
       <c r="E41" t="n">
-        <v>6.04</v>
+        <v>38.33</v>
       </c>
       <c r="F41" t="n">
-        <v>0.25</v>
+        <v>1.6</v>
       </c>
       <c r="G41" t="n">
-        <v>14.45</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Run_BOP_Splash_Zone</t>
+          <t>Wiper Trip</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3999999998696148</v>
+        <v>0.04143049962285366</v>
       </c>
       <c r="E42" t="n">
-        <v>2.5</v>
+        <v>24.14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="G42" t="n">
-        <v>14.55</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Run BOP on Riser</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>78</v>
+        <v>3096.194321283745</v>
       </c>
       <c r="D43" t="n">
-        <v>3.156647466761856</v>
+        <v>1428.571428571429</v>
       </c>
       <c r="E43" t="n">
-        <v>24.71</v>
+        <v>2.17</v>
       </c>
       <c r="F43" t="n">
-        <v>1.03</v>
+        <v>0.09</v>
       </c>
       <c r="G43" t="n">
-        <v>15.58</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pressure Test Choke, Kill, Boost &amp; Conduit Lines</t>
+          <t>POOH 26'' BHA</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2745</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4943056944223542</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E44" t="n">
-        <v>10.12</v>
+        <v>6.46</v>
       </c>
       <c r="F44" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Run_Slip_Jt_Landing_Jt</t>
+          <t>Break Off BHA</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.36363636374412</v>
+        <v>0.2439909296862088</v>
       </c>
       <c r="E45" t="n">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G45" t="n">
-        <v>16.12</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Install_C_K_B_C_Goosenecks</t>
+          <t>Rig_up_for_Casing</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3999999998696148</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E46" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G46" t="n">
-        <v>16.22</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pressure Test Choke, Kill &amp; Boost Goosenecks</t>
+          <t>Run_Check_Float_Fun_20_Casing</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4943056944223542</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E47" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G47" t="n">
-        <v>16.3</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Install_Saddle_Loops_Engage_MRT</t>
+          <t>Run 20'' Casing</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3076923076151567</v>
+        <v>3.136363635262502</v>
       </c>
       <c r="E48" t="n">
-        <v>3.25</v>
+        <v>16.9</v>
       </c>
       <c r="F48" t="n">
-        <v>0.14</v>
+        <v>0.7</v>
       </c>
       <c r="G48" t="n">
-        <v>16.44</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Land &amp; Latch BOP. Carry Out Pick up and Slump Test</t>
+          <t>M_Up_HPWHH_Run_Inner_String_Engage_Cart_to_HPWHH</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2352941176921748</v>
       </c>
       <c r="E49" t="n">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="G49" t="n">
-        <v>16.5</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pressure Test Connector. Stroke out Slip Jt &amp; Lay Dn Landing Jt</t>
+          <t>Tripping_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>1485</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5000000002037268</v>
+        <v>206.1859351426755</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="G50" t="n">
-        <v>16.59</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Install_Diverter</t>
+          <t>Tripping_Casing_on_Landing_String_OH</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>630</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2857142855812396</v>
+        <v>132.7857140791436</v>
       </c>
       <c r="E51" t="n">
-        <v>3.5</v>
+        <v>4.74</v>
       </c>
       <c r="F51" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G51" t="n">
-        <v>16.73</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Rig Down Spider &amp; Gimbal</t>
+          <t>Cementing 20'' Casing</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1.000000001629815</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="G52" t="n">
-        <v>16.77</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>Wait on Cement</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4012626261785286</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>2.49</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="n">
-        <v>16.88</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Release_Cart_from_HPWHH</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6219047620498154</v>
+        <v>3.890410942314198</v>
       </c>
       <c r="E54" t="n">
-        <v>1.61</v>
+        <v>0.26</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G54" t="n">
-        <v>16.94</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Surface Equipment Pressure Test</t>
+          <t>POOH Cart Tool to surface</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2115</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4000000001303851</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E55" t="n">
-        <v>2.5</v>
+        <v>4.98</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="G55" t="n">
-        <v>17.05</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Make up Dumb Iron BHA</t>
+          <t>Rig_up_for_riser_handling</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2183540723733117</v>
+        <v>0.1656565656386063</v>
       </c>
       <c r="E56" t="n">
-        <v>4.58</v>
+        <v>6.04</v>
       </c>
       <c r="F56" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="G56" t="n">
-        <v>17.24</v>
+        <v>19.69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Run 17-1/2'' BHA</t>
+          <t>Run_BOP_Splash_Zone</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2695</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>424.6051882298284</v>
+        <v>0.3999999998696148</v>
       </c>
       <c r="E57" t="n">
-        <v>6.35</v>
+        <v>2.5</v>
       </c>
       <c r="F57" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="G57" t="n">
-        <v>17.5</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BOP Pressure Test</t>
+          <t>Run BOP on Riser</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D58" t="n">
-        <v>0.15384615383651</v>
+        <v>3.156647466761856</v>
       </c>
       <c r="E58" t="n">
-        <v>6.5</v>
+        <v>24.71</v>
       </c>
       <c r="F58" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="G58" t="n">
-        <v>17.77</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>Pressure Test Choke, Kill, Boost &amp; Conduit Lines</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>146.9999999962747</v>
+        <v>0.4943056944223542</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2</v>
+        <v>10.12</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01</v>
+        <v>0.42</v>
       </c>
       <c r="G59" t="n">
-        <v>17.78</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Run_Slip_Jt_Landing_Jt</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06760804449933652</v>
+        <v>0.36363636374412</v>
       </c>
       <c r="E60" t="n">
-        <v>14.79</v>
+        <v>2.75</v>
       </c>
       <c r="F60" t="n">
-        <v>0.62</v>
+        <v>0.11</v>
       </c>
       <c r="G60" t="n">
-        <v>18.4</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>Install_C_K_B_C_Goosenecks</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2750</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>424.6051882298284</v>
+        <v>0.3999999998696148</v>
       </c>
       <c r="E61" t="n">
-        <v>6.48</v>
+        <v>2.5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>18.67</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>Pressure Test Choke, Kill &amp; Boost Goosenecks</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4012626261785286</v>
+        <v>0.4943056944223542</v>
       </c>
       <c r="E62" t="n">
-        <v>2.49</v>
+        <v>2.02</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G62" t="n">
-        <v>18.77</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Install_Saddle_Loops_Engage_MRT</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.3076923076151567</v>
       </c>
       <c r="E63" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G63" t="n">
-        <v>18.84</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Surface Equipment Pressure Test</t>
+          <t>Land &amp; Latch BOP. Carry Out Pick up and Slump Test</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4000000001303851</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E64" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G64" t="n">
-        <v>18.94</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Make up LWD BHA</t>
+          <t>Pressure Test Connector. Stroke out Slip Jt &amp; Lay Dn Landing Jt</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2183540723733117</v>
+        <v>0.5000000002037268</v>
       </c>
       <c r="E65" t="n">
-        <v>4.58</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="G65" t="n">
-        <v>19.13</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Run 12.25'' BHA</t>
+          <t>Install_Diverter</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2695</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>424.6051882298284</v>
+        <v>0.2857142855812396</v>
       </c>
       <c r="E66" t="n">
-        <v>6.35</v>
+        <v>3.5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="G66" t="n">
-        <v>19.4</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BOP Pressure Test</t>
+          <t>Rig Down Spider &amp; Gimbal</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15384615383651</v>
+        <v>1.000000001629815</v>
       </c>
       <c r="E67" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="G67" t="n">
-        <v>19.67</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>slip_and_cut</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>146.9999999962747</v>
+        <v>0.4012626261785286</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2</v>
+        <v>2.49</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>19.68</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06760804449933652</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E69" t="n">
-        <v>14.79</v>
+        <v>1.61</v>
       </c>
       <c r="F69" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>20.3</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fingerprint_Flow_Back</t>
+          <t>Surface Equipment Pressure Test</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1.333333333333333</v>
+        <v>0.4000000001303851</v>
       </c>
       <c r="E70" t="n">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>20.33</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Drill 12.25''</t>
+          <t>Make up Dumb Iron BHA</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>7.39276608074035</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E71" t="n">
-        <v>49.1</v>
+        <v>4.58</v>
       </c>
       <c r="F71" t="n">
-        <v>2.05</v>
+        <v>0.19</v>
       </c>
       <c r="G71" t="n">
-        <v>22.37</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Coring at depth 2915</t>
+          <t>Run 17-1/2'' BHA</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2695</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03277210197673476</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E72" t="n">
-        <v>30.51</v>
+        <v>6.35</v>
       </c>
       <c r="F72" t="n">
-        <v>1.27</v>
+        <v>0.26</v>
       </c>
       <c r="G72" t="n">
-        <v>23.64</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>BOP Pressure Test</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2755</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>424.6051882298284</v>
+        <v>0.15384615383651</v>
       </c>
       <c r="E73" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="F73" t="n">
         <v>0.27</v>
       </c>
       <c r="G73" t="n">
-        <v>23.91</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01388888888888889</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E74" t="n">
-        <v>72</v>
+        <v>0.2</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="G74" t="n">
-        <v>26.91</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Drill_Shoe_Track_LOT</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.06760804449933652</v>
       </c>
       <c r="E75" t="n">
-        <v>1.61</v>
+        <v>14.79</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G75" t="n">
-        <v>26.98</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>RIH dumb iron BHA and Carry out LOT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Make up MWD BHA</t>
+          <t>POOH</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2750</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2183540723733117</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E76" t="n">
-        <v>4.58</v>
+        <v>6.48</v>
       </c>
       <c r="F76" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="G76" t="n">
-        <v>27.17</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Run 17.5'' BHA</t>
+          <t>slip_and_cut</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2745</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>424.6051882298284</v>
+        <v>0.4012626261785286</v>
       </c>
       <c r="E77" t="n">
-        <v>6.46</v>
+        <v>2.49</v>
       </c>
       <c r="F77" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>27.44</v>
+        <v>24.01</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Enlarge 12.25'' Hole to 17.5''</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>31.12328388670349</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E78" t="n">
-        <v>11.98</v>
+        <v>1.61</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>27.94</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wiper Trip</t>
+          <t>Surface Equipment Pressure Test</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2115039363199976</v>
+        <v>0.4000000001303851</v>
       </c>
       <c r="E79" t="n">
-        <v>4.73</v>
+        <v>2.5</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>28.14</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Circulate</t>
+          <t>Make up LWD BHA</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3201.1474396</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1223.917693211388</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E80" t="n">
-        <v>2.62</v>
+        <v>4.58</v>
       </c>
       <c r="F80" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="G80" t="n">
-        <v>28.25</v>
+        <v>24.38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>Run 12.25'' BHA</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3118</v>
+        <v>2695</v>
       </c>
       <c r="D81" t="n">
         <v>424.6051882298284</v>
       </c>
       <c r="E81" t="n">
-        <v>7.34</v>
+        <v>6.35</v>
       </c>
       <c r="F81" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="G81" t="n">
-        <v>28.55</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Retrieve Wear Bush</t>
+          <t>BOP Pressure Test</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08359669254473748</v>
+        <v>0.15384615383651</v>
       </c>
       <c r="E82" t="n">
-        <v>11.96</v>
+        <v>6.5</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="G82" t="n">
-        <v>29.05</v>
+        <v>24.91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Rig_up_for_Casing</t>
+          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4444444444444444</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E83" t="n">
-        <v>2.25</v>
+        <v>0.2</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="G83" t="n">
-        <v>29.14</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Run_Check_Float_Fun_13.625_Casing</t>
+          <t>Drill_Shoe_Track_LOT</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5000000002037268</v>
+        <v>0.06760804449933652</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>14.79</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="G84" t="n">
-        <v>29.23</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing</t>
+          <t>Fingerprint_Flow_Back</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>10.7999999964796</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E85" t="n">
-        <v>7.78</v>
+        <v>0.75</v>
       </c>
       <c r="F85" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="G85" t="n">
-        <v>29.55</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String</t>
+          <t>Drill 12.25''</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2115</v>
+        <v>363</v>
       </c>
       <c r="D86" t="n">
-        <v>206.1859351426755</v>
+        <v>7.39276608074035</v>
       </c>
       <c r="E86" t="n">
-        <v>10.26</v>
+        <v>49.1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.43</v>
+        <v>2.05</v>
       </c>
       <c r="G86" t="n">
-        <v>29.98</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Land_Latch_Casing_Indexing_Pick_up_test</t>
+          <t>Coring at depth 2915</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.03277210197673476</v>
       </c>
       <c r="E87" t="n">
-        <v>3.8</v>
+        <v>30.51</v>
       </c>
       <c r="F87" t="n">
-        <v>0.16</v>
+        <v>1.27</v>
       </c>
       <c r="G87" t="n">
-        <v>30.14</v>
+        <v>28.88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Pilot Hole</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cementing_13-3/8_in</t>
+          <t>POOH</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2755</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1250000000127329</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>6.49</v>
       </c>
       <c r="F88" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="G88" t="n">
-        <v>30.47</v>
+        <v>29.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Set_Seal_Assembly</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5714285711624792</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E89" t="n">
-        <v>1.75</v>
+        <v>72</v>
       </c>
       <c r="F89" t="n">
-        <v>0.07000000000000001</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>30.54</v>
+        <v>32.15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Release_PADPRT_L_Dn_Cement_Head</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E90" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>30.61</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>POOH PADPRT to surface</t>
+          <t>Make up MWD BHA</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2115</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>424.6051882298284</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E91" t="n">
-        <v>4.98</v>
+        <v>4.58</v>
       </c>
       <c r="F91" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="G91" t="n">
-        <v>30.81</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>Run 17.5'' BHA</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2745</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4012626261785286</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E92" t="n">
-        <v>2.49</v>
+        <v>6.46</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="G92" t="n">
-        <v>30.92</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Set Wear Bush at Wellhead</t>
+          <t>Enlarge 12.25'' Hole to 17.5''</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08359669254473748</v>
+        <v>31.12328388670349</v>
       </c>
       <c r="E93" t="n">
-        <v>11.96</v>
+        <v>11.98</v>
       </c>
       <c r="F93" t="n">
         <v>0.5</v>
       </c>
       <c r="G93" t="n">
-        <v>31.42</v>
+        <v>33.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Wiper Trip</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.2115039363199976</v>
       </c>
       <c r="E94" t="n">
-        <v>1.61</v>
+        <v>4.73</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G94" t="n">
-        <v>31.48</v>
+        <v>33.38</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lay_Dn_Cement_Head</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3201.1474396</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6999999999348074</v>
+        <v>1223.917693211388</v>
       </c>
       <c r="E95" t="n">
-        <v>1.43</v>
+        <v>2.62</v>
       </c>
       <c r="F95" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G95" t="n">
-        <v>31.54</v>
+        <v>33.49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Enlarge Pilot Hole</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Make up LWD BHA</t>
+          <t>POOH</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>3118</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2183540723733117</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E96" t="n">
-        <v>4.58</v>
+        <v>7.34</v>
       </c>
       <c r="F96" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="G96" t="n">
-        <v>31.73</v>
+        <v>33.79</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Run 12.25'' BHA</t>
+          <t>Retrieve Wear Bush</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2818</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>424.6051882298284</v>
+        <v>0.08359669254473748</v>
       </c>
       <c r="E97" t="n">
-        <v>6.64</v>
+        <v>11.96</v>
       </c>
       <c r="F97" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="G97" t="n">
-        <v>32.01</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BOP_Function_Test</t>
+          <t>Rig_up_for_Casing</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1.666666663407038</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6</v>
+        <v>2.25</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="G98" t="n">
-        <v>32.04</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Choke_Drill</t>
+          <t>Run_Check_Float_Fun_13.625_Casing</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7999999989569188</v>
+        <v>0.5000000002037268</v>
       </c>
       <c r="E99" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G99" t="n">
-        <v>32.09</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>Run 13.375'' Casing</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D100" t="n">
-        <v>146.9999999962747</v>
+        <v>10.7999999964796</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2</v>
+        <v>7.78</v>
       </c>
       <c r="F100" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="G100" t="n">
-        <v>32.1</v>
+        <v>34.79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Tripping_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2115</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06760804449933652</v>
+        <v>206.1859351426755</v>
       </c>
       <c r="E101" t="n">
-        <v>14.79</v>
+        <v>10.26</v>
       </c>
       <c r="F101" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="G101" t="n">
-        <v>32.71</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fingerprint_Flow_Back</t>
+          <t>Land_Latch_Casing_Indexing_Pick_up_test</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1.333333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E102" t="n">
-        <v>0.75</v>
+        <v>3.8</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="G102" t="n">
-        <v>32.74</v>
+        <v>35.38</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Drill 12.25''</t>
+          <t>Cementing_13-3/8_in</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>797</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>7.39276608074035</v>
+        <v>0.1250000000127329</v>
       </c>
       <c r="E103" t="n">
-        <v>107.81</v>
+        <v>8</v>
       </c>
       <c r="F103" t="n">
-        <v>4.49</v>
+        <v>0.33</v>
       </c>
       <c r="G103" t="n">
-        <v>37.24</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Coring at depth 3635</t>
+          <t>Set_Seal_Assembly</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02357512115132686</v>
+        <v>0.5714285711624792</v>
       </c>
       <c r="E104" t="n">
-        <v>42.42</v>
+        <v>1.75</v>
       </c>
       <c r="F104" t="n">
-        <v>1.77</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>39</v>
+        <v>35.78</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>wiper_trip</t>
+          <t>Release_PADPRT_L_Dn_Cement_Head</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0.09778062223750149</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E105" t="n">
-        <v>10.23</v>
+        <v>1.5</v>
       </c>
       <c r="F105" t="n">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="G105" t="n">
-        <v>39.43</v>
+        <v>35.85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Circulate</t>
+          <t>POOH PADPRT to surface</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2933.559415</v>
+        <v>2115</v>
       </c>
       <c r="D106" t="n">
-        <v>823.036595790584</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E106" t="n">
-        <v>3.56</v>
+        <v>4.98</v>
       </c>
       <c r="F106" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="G106" t="n">
-        <v>39.58</v>
+        <v>36.05</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>POOH 12.25'' BHA to casing shoe</t>
+          <t>slip_and_cut</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>807</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>144.6351301798587</v>
+        <v>0.4012626261785286</v>
       </c>
       <c r="E107" t="n">
-        <v>5.58</v>
+        <v>2.49</v>
       </c>
       <c r="F107" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="G107" t="n">
-        <v>39.81</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>POOH 12.25'' BHA to surface</t>
+          <t>Set Wear Bush at Wellhead</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2818</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>424.6051882298284</v>
+        <v>0.08359669254473748</v>
       </c>
       <c r="E108" t="n">
-        <v>6.64</v>
+        <v>11.96</v>
       </c>
       <c r="F108" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="G108" t="n">
-        <v>40.09</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="109">
@@ -3367,860 +3367,860 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Break Off BHA</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2439909296862088</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E109" t="n">
-        <v>4.1</v>
+        <v>1.61</v>
       </c>
       <c r="F109" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>40.26</v>
+        <v>36.72</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Lay_Dn_Cement_Head</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.6999999999348074</v>
       </c>
       <c r="E110" t="n">
-        <v>96</v>
+        <v>1.43</v>
       </c>
       <c r="F110" t="n">
-        <v>4</v>
+        <v>0.06</v>
       </c>
       <c r="G110" t="n">
-        <v>44.26</v>
+        <v>36.78</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Roundtrip for logging</t>
+          <t>Make up LWD BHA</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06763902189379657</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E111" t="n">
-        <v>14.78</v>
+        <v>4.58</v>
       </c>
       <c r="F111" t="n">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="G111" t="n">
-        <v>44.87</v>
+        <v>36.97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Wireline_Logging_part_2</t>
+          <t>Run 12.25'' BHA</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2818</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01041666666666667</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E112" t="n">
-        <v>96</v>
+        <v>6.64</v>
       </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>0.28</v>
       </c>
       <c r="G112" t="n">
-        <v>48.87</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Roundtrip for Casing Lowering</t>
+          <t>BOP_Function_Test</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06763902189379657</v>
+        <v>1.666666663407038</v>
       </c>
       <c r="E113" t="n">
-        <v>14.78</v>
+        <v>0.6</v>
       </c>
       <c r="F113" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="G113" t="n">
-        <v>49.49</v>
+        <v>37.28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Retrieve Wear Bush</t>
+          <t>Choke_Drill</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08359669254473748</v>
+        <v>0.7999999989569188</v>
       </c>
       <c r="E114" t="n">
-        <v>11.96</v>
+        <v>1.25</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G114" t="n">
-        <v>49.99</v>
+        <v>37.33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6219047620498154</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E115" t="n">
-        <v>1.61</v>
+        <v>0.2</v>
       </c>
       <c r="F115" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G115" t="n">
-        <v>50.05</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Run_Check_Float_Fun_9.625_Casing</t>
+          <t>Drill_Shoe_Track_LOT</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5000000002037268</v>
+        <v>0.06760804449933652</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>14.79</v>
       </c>
       <c r="F116" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="G116" t="n">
-        <v>50.14</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing</t>
+          <t>Fingerprint_Flow_Back</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>10.7999999964796</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E117" t="n">
-        <v>13.98</v>
+        <v>0.75</v>
       </c>
       <c r="F117" t="n">
-        <v>0.58</v>
+        <v>0.03</v>
       </c>
       <c r="G117" t="n">
-        <v>50.72</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String</t>
+          <t>Drill 12.25''</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1308</v>
+        <v>797</v>
       </c>
       <c r="D118" t="n">
-        <v>206.1859351426755</v>
+        <v>7.39276608074035</v>
       </c>
       <c r="E118" t="n">
-        <v>6.34</v>
+        <v>107.81</v>
       </c>
       <c r="F118" t="n">
-        <v>0.26</v>
+        <v>4.49</v>
       </c>
       <c r="G118" t="n">
-        <v>50.98</v>
+        <v>42.48</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String_OH</t>
+          <t>Coring at depth 3635</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>807</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>132.7857140791436</v>
+        <v>0.02357512115132686</v>
       </c>
       <c r="E119" t="n">
-        <v>6.08</v>
+        <v>42.42</v>
       </c>
       <c r="F119" t="n">
-        <v>0.25</v>
+        <v>1.77</v>
       </c>
       <c r="G119" t="n">
-        <v>51.24</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cementing_9-5/8_in</t>
+          <t>wiper_trip</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1250000000127329</v>
+        <v>0.09778062223750149</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>10.23</v>
       </c>
       <c r="F120" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G120" t="n">
-        <v>51.57</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Set_Seal_Assembly</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2933.559415</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5714285711624792</v>
+        <v>823.036595790584</v>
       </c>
       <c r="E121" t="n">
-        <v>1.75</v>
+        <v>3.56</v>
       </c>
       <c r="F121" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G121" t="n">
-        <v>51.64</v>
+        <v>44.82</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Release_PADPRT_L_Dn_Cement_Head</t>
+          <t>POOH 12.25'' BHA to casing shoe</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>807</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6666666666666666</v>
+        <v>144.6351301798587</v>
       </c>
       <c r="E122" t="n">
-        <v>1.5</v>
+        <v>5.58</v>
       </c>
       <c r="F122" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="G122" t="n">
-        <v>51.71</v>
+        <v>45.05</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>POOH PADPRT to surface</t>
+          <t>POOH 12.25'' BHA to surface</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2115</v>
+        <v>2818</v>
       </c>
       <c r="D123" t="n">
         <v>424.6051882298284</v>
       </c>
       <c r="E123" t="n">
-        <v>4.98</v>
+        <v>6.64</v>
       </c>
       <c r="F123" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="G123" t="n">
-        <v>51.91</v>
+        <v>45.33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>Break Off BHA</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4012626261785286</v>
+        <v>0.2439909296862088</v>
       </c>
       <c r="E124" t="n">
-        <v>2.49</v>
+        <v>4.1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="G124" t="n">
-        <v>52.02</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Set Wear Bush at Wellhead</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08359669254473748</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E125" t="n">
-        <v>11.96</v>
+        <v>96</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>52.52</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Roundtrip for logging</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.06763902189379657</v>
       </c>
       <c r="E126" t="n">
-        <v>1.61</v>
+        <v>14.78</v>
       </c>
       <c r="F126" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G126" t="n">
-        <v>52.58</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Make up LWD BHA</t>
+          <t>Wireline_Logging_part_2</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2183540723733117</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E127" t="n">
-        <v>4.58</v>
+        <v>96</v>
       </c>
       <c r="F127" t="n">
-        <v>0.19</v>
+        <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>52.77</v>
+        <v>54.11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Run 8.5'' BHA</t>
+          <t>Roundtrip for Casing Lowering</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3625</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>424.6051882298284</v>
+        <v>0.06763902189379657</v>
       </c>
       <c r="E128" t="n">
-        <v>8.539999999999999</v>
+        <v>14.78</v>
       </c>
       <c r="F128" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="G128" t="n">
-        <v>53.13</v>
+        <v>54.73</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BOP_Pressure_Test</t>
+          <t>Retrieve Wear Bush</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0.15384615383651</v>
+        <v>0.08359669254473748</v>
       </c>
       <c r="E129" t="n">
-        <v>6.5</v>
+        <v>11.96</v>
       </c>
       <c r="F129" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="n">
-        <v>53.4</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Choke_Drill</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7999999989569188</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E130" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>53.45</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>Run_Check_Float_Fun_9.625_Casing</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>146.9999999962747</v>
+        <v>0.5000000002037268</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G131" t="n">
-        <v>53.46</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Run 9-5/8'' Casing</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06760804449933652</v>
+        <v>10.7999999964796</v>
       </c>
       <c r="E132" t="n">
-        <v>14.79</v>
+        <v>13.98</v>
       </c>
       <c r="F132" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="G132" t="n">
-        <v>54.08</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fingerprint_Flow_Back</t>
+          <t>Tripping_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>1308</v>
       </c>
       <c r="D133" t="n">
-        <v>1.333333333333333</v>
+        <v>206.1859351426755</v>
       </c>
       <c r="E133" t="n">
-        <v>0.75</v>
+        <v>6.34</v>
       </c>
       <c r="F133" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="G133" t="n">
-        <v>54.11</v>
+        <v>56.23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Drill 8.5''</t>
+          <t>Tripping_Casing_on_Landing_String_OH</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1090</v>
+        <v>807</v>
       </c>
       <c r="D134" t="n">
-        <v>7.39276608074035</v>
+        <v>132.7857140791436</v>
       </c>
       <c r="E134" t="n">
-        <v>147.44</v>
+        <v>6.08</v>
       </c>
       <c r="F134" t="n">
-        <v>6.14</v>
+        <v>0.25</v>
       </c>
       <c r="G134" t="n">
-        <v>60.25</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Coring at depth 4275</t>
+          <t>Cementing_9-5/8_in</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02004392226982393</v>
+        <v>0.1250000000127329</v>
       </c>
       <c r="E135" t="n">
-        <v>49.89</v>
+        <v>8</v>
       </c>
       <c r="F135" t="n">
-        <v>2.08</v>
+        <v>0.33</v>
       </c>
       <c r="G135" t="n">
-        <v>62.33</v>
+        <v>56.81</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Coring at depth 4925</t>
+          <t>Set_Seal_Assembly</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01856509238968879</v>
+        <v>0.5714285711624792</v>
       </c>
       <c r="E136" t="n">
-        <v>53.86</v>
+        <v>1.75</v>
       </c>
       <c r="F136" t="n">
-        <v>2.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>64.58</v>
+        <v>56.89</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>wiper_trip</t>
+          <t>Release_PADPRT_L_Dn_Cement_Head</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0.05500354100262589</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E137" t="n">
-        <v>18.18</v>
+        <v>1.5</v>
       </c>
       <c r="F137" t="n">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
       <c r="G137" t="n">
-        <v>65.33</v>
+        <v>56.95</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Circulate</t>
+          <t>POOH PADPRT to surface</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2622.36015</v>
+        <v>2115</v>
       </c>
       <c r="D138" t="n">
-        <v>288.5136110439606</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E138" t="n">
-        <v>9.09</v>
+        <v>4.98</v>
       </c>
       <c r="F138" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="G138" t="n">
-        <v>65.70999999999999</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>POOH 12.25'' BHA to casing shoe</t>
+          <t>slip_and_cut</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>144.6351301798587</v>
+        <v>0.4012626261785286</v>
       </c>
       <c r="E139" t="n">
-        <v>7.61</v>
+        <v>2.49</v>
       </c>
       <c r="F139" t="n">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="G139" t="n">
-        <v>66.03</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Drill 8.5'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>POOH 12.25'' BHA to surface</t>
+          <t>Set Wear Bush at Wellhead</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3625</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>424.6051882298284</v>
+        <v>0.08359669254473748</v>
       </c>
       <c r="E140" t="n">
-        <v>8.539999999999999</v>
+        <v>11.96</v>
       </c>
       <c r="F140" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="n">
-        <v>66.38</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="141">
@@ -4231,590 +4231,995 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Break Off BHA</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2439909296862088</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E141" t="n">
-        <v>4.1</v>
+        <v>1.61</v>
       </c>
       <c r="F141" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>66.56</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Basic Logs</t>
+          <t>Make up LWD BHA</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E142" t="n">
-        <v>96</v>
+        <v>4.58</v>
       </c>
       <c r="F142" t="n">
-        <v>4</v>
+        <v>0.19</v>
       </c>
       <c r="G142" t="n">
-        <v>70.56</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Roundtrip for logging</t>
+          <t>Run 8.5'' BHA</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>3625</v>
       </c>
       <c r="D143" t="n">
-        <v>0.05392938583556325</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E143" t="n">
-        <v>18.54</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="G143" t="n">
-        <v>71.33</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Advance_Logging</t>
+          <t>BOP_Pressure_Test</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.15384615383651</v>
       </c>
       <c r="E144" t="n">
-        <v>96</v>
+        <v>6.5</v>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>0.27</v>
       </c>
       <c r="G144" t="n">
-        <v>75.33</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Roundtrip for Casing Lowering</t>
+          <t>Choke_Drill</t>
         </is>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0.05392938583556325</v>
+        <v>0.7999999989569188</v>
       </c>
       <c r="E145" t="n">
-        <v>18.54</v>
+        <v>1.25</v>
       </c>
       <c r="F145" t="n">
-        <v>0.77</v>
+        <v>0.05</v>
       </c>
       <c r="G145" t="n">
-        <v>76.09999999999999</v>
+        <v>58.69</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6219047620498154</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E146" t="n">
-        <v>1.61</v>
+        <v>0.2</v>
       </c>
       <c r="F146" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G146" t="n">
-        <v>76.17</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Run_Check_Float_Fun_7''_Liner</t>
+          <t>Drill_Shoe_Track_LOT</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5000000002037268</v>
+        <v>0.06760804449933652</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>14.79</v>
       </c>
       <c r="F147" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="G147" t="n">
-        <v>76.25</v>
+        <v>59.32</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Run 7'' Liner</t>
+          <t>Fingerprint_Flow_Back</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>10.7999999964796</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E148" t="n">
-        <v>9.720000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F148" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="G148" t="n">
-        <v>76.66</v>
+        <v>59.35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String</t>
+          <t>Drill 8.5''</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2675</v>
+        <v>1090</v>
       </c>
       <c r="D149" t="n">
-        <v>206.1859351426755</v>
+        <v>7.39276608074035</v>
       </c>
       <c r="E149" t="n">
-        <v>12.97</v>
+        <v>147.44</v>
       </c>
       <c r="F149" t="n">
-        <v>0.54</v>
+        <v>6.14</v>
       </c>
       <c r="G149" t="n">
-        <v>77.2</v>
+        <v>65.48999999999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String_OH</t>
+          <t>Coring at depth 4275</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>132.7857140791436</v>
+        <v>0.02004392226982393</v>
       </c>
       <c r="E150" t="n">
-        <v>8.279999999999999</v>
+        <v>49.89</v>
       </c>
       <c r="F150" t="n">
-        <v>0.35</v>
+        <v>2.08</v>
       </c>
       <c r="G150" t="n">
-        <v>77.54000000000001</v>
+        <v>67.56999999999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cementing_7'' Liner</t>
+          <t>Coring at depth 4925</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1250000000127329</v>
+        <v>0.01856509238968879</v>
       </c>
       <c r="E151" t="n">
-        <v>8</v>
+        <v>53.86</v>
       </c>
       <c r="F151" t="n">
-        <v>0.33</v>
+        <v>2.24</v>
       </c>
       <c r="G151" t="n">
-        <v>77.88</v>
+        <v>69.81999999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Set_Liner_Hanger_Seal</t>
+          <t>wiper_trip</t>
         </is>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5714285711624792</v>
+        <v>0.05500354100262589</v>
       </c>
       <c r="E152" t="n">
-        <v>1.75</v>
+        <v>18.18</v>
       </c>
       <c r="F152" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="G152" t="n">
-        <v>77.95</v>
+        <v>70.56999999999999</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Release_Liner_Hanger_Running_Tool</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2622.36015</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6666666666666666</v>
+        <v>288.5136110439606</v>
       </c>
       <c r="E153" t="n">
-        <v>1.5</v>
+        <v>9.09</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="G153" t="n">
-        <v>78.01000000000001</v>
+        <v>70.95</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>POOH Liner Hanger Running Tool to surface</t>
+          <t>POOH 12.25'' BHA to casing shoe</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2115</v>
+        <v>1100</v>
       </c>
       <c r="D154" t="n">
-        <v>424.6051882298284</v>
+        <v>144.6351301798587</v>
       </c>
       <c r="E154" t="n">
-        <v>4.98</v>
+        <v>7.61</v>
       </c>
       <c r="F154" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="G154" t="n">
-        <v>78.22</v>
+        <v>71.27</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Run 7'' Liner &amp; Cement</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>POOH 12.25'' BHA to surface</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>3625</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4012626261785286</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E155" t="n">
-        <v>2.49</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="G155" t="n">
-        <v>78.31999999999999</v>
+        <v>71.63</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+          <t>Drill 8.5'' Hole</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RIH Tandem Scraper from surface to Scraping depth</t>
+          <t>Break Off BHA</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3425</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>424.6051882298284</v>
+        <v>0.2439909296862088</v>
       </c>
       <c r="E156" t="n">
-        <v>8.07</v>
+        <v>4.1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="G156" t="n">
-        <v>78.66</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Scrape Casing</t>
+          <t>Basic Logs</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>144.6351301798587</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E157" t="n">
-        <v>11.06</v>
+        <v>96</v>
       </c>
       <c r="F157" t="n">
-        <v>0.46</v>
+        <v>4</v>
       </c>
       <c r="G157" t="n">
-        <v>79.12</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>POOH Tandem Scraping BHA</t>
+          <t>Roundtrip for logging</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5025</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>424.6051882298284</v>
+        <v>0.05392938583556325</v>
       </c>
       <c r="E158" t="n">
-        <v>11.83</v>
+        <v>18.54</v>
       </c>
       <c r="F158" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="G158" t="n">
-        <v>79.61</v>
+        <v>76.56999999999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Record CBL VDL Log</t>
+          <t>Advance_Logging</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04166666666836439</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E159" t="n">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G159" t="n">
-        <v>80.61</v>
+        <v>80.56999999999999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+          <t>Run 7'' Liner &amp; Cement</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Run Mule Shoe for hermetical and inflow test</t>
+          <t>Roundtrip for Casing Lowering</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5025</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>424.6051882298284</v>
+        <v>0.05392938583556325</v>
       </c>
       <c r="E160" t="n">
-        <v>11.83</v>
+        <v>18.54</v>
       </c>
       <c r="F160" t="n">
-        <v>0.49</v>
+        <v>0.77</v>
       </c>
       <c r="G160" t="n">
-        <v>81.11</v>
+        <v>81.34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+          <t>Run 7'' Liner &amp; Cement</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Changeover Well Volume from WBM to sea water</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2622.36015</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>324.5778124244557</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E161" t="n">
-        <v>8.08</v>
+        <v>1.61</v>
       </c>
       <c r="F161" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>81.44</v>
+        <v>81.41</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Run_Check_Float_Fun_7''_Liner</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5000000002037268</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G162" t="n">
+        <v>81.48999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>105</v>
+      </c>
+      <c r="D163" t="n">
+        <v>10.7999999964796</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G163" t="n">
+        <v>81.90000000000001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Tripping_Casing_on_Landing_String</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2675</v>
+      </c>
+      <c r="D164" t="n">
+        <v>206.1859351426755</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G164" t="n">
+        <v>82.44</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Tripping_Casing_on_Landing_String_OH</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D165" t="n">
+        <v>132.7857140791436</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G165" t="n">
+        <v>82.78</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cementing_7'' Liner</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.1250000000127329</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G166" t="n">
+        <v>83.12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Set_Liner_Hanger_Seal</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.5714285711624792</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>83.19</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Release_Liner_Hanger_Running_Tool</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G168" t="n">
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>POOH Liner Hanger Running Tool to surface</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2115</v>
+      </c>
+      <c r="D169" t="n">
+        <v>424.6051882298284</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G169" t="n">
+        <v>83.45999999999999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Run 7'' Liner &amp; Cement</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>slip_and_cut</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.4012626261785286</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>83.56</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>RIH Tandem Scraper from surface to Scraping depth</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>3425</v>
+      </c>
+      <c r="D171" t="n">
+        <v>424.6051882298284</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G171" t="n">
+        <v>83.90000000000001</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Scrape Casing</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D172" t="n">
+        <v>144.6351301798587</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G172" t="n">
+        <v>84.36</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>POOH Tandem Scraping BHA</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>5025</v>
+      </c>
+      <c r="D173" t="n">
+        <v>424.6051882298284</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G173" t="n">
+        <v>84.84999999999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Record CBL VDL Log</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.04166666666836439</v>
+      </c>
+      <c r="E174" t="n">
+        <v>24</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>85.84999999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Run Mule Shoe for hermetical and inflow test</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>5025</v>
+      </c>
+      <c r="D175" t="n">
+        <v>424.6051882298284</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G175" t="n">
+        <v>86.34999999999999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Changeover Well Volume from WBM to sea water</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2622.36015</v>
+      </c>
+      <c r="D176" t="n">
+        <v>324.5778124244557</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G176" t="n">
+        <v>86.68000000000001</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
         <is>
           <t>Carry out Inflow &amp; Hermetical Test</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E177" t="n">
         <v>7</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F177" t="n">
         <v>0.29</v>
       </c>
-      <c r="G162" t="n">
-        <v>81.73</v>
+      <c r="G177" t="n">
+        <v>86.97</v>
       </c>
     </row>
   </sheetData>

--- a/Subsea_Well_Plan1.xlsx
+++ b/Subsea_Well_Plan1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2365</v>
+        <v>1315</v>
       </c>
       <c r="D2" t="n">
         <v>424.6051882298284</v>
       </c>
       <c r="E2" t="n">
-        <v>5.57</v>
+        <v>3.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>0.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>0.17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
@@ -629,7 +629,7 @@
         <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
         <v>3.156647466761856</v>
       </c>
       <c r="E8" t="n">
-        <v>24.71</v>
+        <v>12.35</v>
       </c>
       <c r="F8" t="n">
-        <v>1.03</v>
+        <v>0.51</v>
       </c>
       <c r="G8" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>0.88</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>0.21</v>
       </c>
       <c r="G10" t="n">
-        <v>2.95</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
         <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>4.62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -764,7 +764,7 @@
         <v>0.98</v>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="13">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1057.5</v>
+        <v>532.5</v>
       </c>
       <c r="D13" t="n">
         <v>424.6051882298284</v>
       </c>
       <c r="E13" t="n">
-        <v>2.49</v>
+        <v>1.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>5.7</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="14">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="D14" t="n">
         <v>28.97142857142857</v>
       </c>
       <c r="E14" t="n">
-        <v>21.75</v>
+        <v>13.81</v>
       </c>
       <c r="F14" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
       <c r="G14" t="n">
-        <v>6.61</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="15">
@@ -836,16 +836,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1596977695120806</v>
+        <v>0.2545282126746847</v>
       </c>
       <c r="E15" t="n">
-        <v>6.26</v>
+        <v>3.93</v>
       </c>
       <c r="F15" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="G15" t="n">
-        <v>6.87</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="16">
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>602.6117798079025</v>
+        <v>382.6106538462873</v>
       </c>
       <c r="D16" t="n">
         <v>823.036595790584</v>
       </c>
       <c r="E16" t="n">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G16" t="n">
-        <v>6.9</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="17">
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2745</v>
+        <v>1465</v>
       </c>
       <c r="D17" t="n">
         <v>424.6051882298284</v>
       </c>
       <c r="E17" t="n">
-        <v>6.46</v>
+        <v>3.45</v>
       </c>
       <c r="F17" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="G17" t="n">
-        <v>7.17</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="18">
@@ -926,1579 +926,1579 @@
         <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>7.28</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Make Up MWD BHA</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2183540723733117</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E19" t="n">
-        <v>4.58</v>
+        <v>1.61</v>
       </c>
       <c r="F19" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>7.47</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Run 26'' x 42'' BHA</t>
+          <t>Run Conductor Casing</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2115</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>424.6051882298284</v>
+        <v>0.9396135264378762</v>
       </c>
       <c r="E20" t="n">
-        <v>4.98</v>
+        <v>7.45</v>
       </c>
       <c r="F20" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="G20" t="n">
-        <v>7.67</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Drill 42''</t>
+          <t>Install_Ball_Valves_Slope_Indicator_Latch_Mud_Mat</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>14.80000001414679</v>
+        <v>0.535714285683103</v>
       </c>
       <c r="E21" t="n">
-        <v>5.41</v>
+        <v>1.87</v>
       </c>
       <c r="F21" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="G21" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Circulate, POOH</t>
+          <t>Tripping_36_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6691231552068618</v>
+        <v>274.3454105906515</v>
       </c>
       <c r="E22" t="n">
-        <v>1.49</v>
+        <v>2.42</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>7.96</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wait for Soaking &amp; RIH</t>
+          <t>Tripping_36_Casing_on_Landing_String_OH</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>8.57</v>
       </c>
       <c r="F23" t="n">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="G23" t="n">
-        <v>8.130000000000001</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Circulation</t>
+          <t>Jet Conductor Casing</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1204.630455573312</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>23.80952380952381</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>50.59</v>
+        <v>0.11</v>
       </c>
       <c r="F24" t="n">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>10.24</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Drill 42'' Hole</t>
+          <t>Jet 36'' Casing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>Wait on soaking</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2195</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>424.6051882298284</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>5.17</v>
+        <v>0.08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.45</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Drill 26''</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6219047620498154</v>
+        <v>14.34855769203052</v>
       </c>
       <c r="E26" t="n">
-        <v>1.61</v>
+        <v>22.3</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G26" t="n">
-        <v>10.52</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Wiper Trip</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9396135264378762</v>
+        <v>0.07838965992726982</v>
       </c>
       <c r="E27" t="n">
-        <v>7.45</v>
+        <v>12.76</v>
       </c>
       <c r="F27" t="n">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
       <c r="G27" t="n">
-        <v>10.83</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Install_Ball_Valves_Slope_Indicator_Latch_Mud_Mat</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>1927.215521449997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.535714285683103</v>
+        <v>1428.571428571429</v>
       </c>
       <c r="E28" t="n">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G28" t="n">
-        <v>10.91</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tripping_36_Casing_on_Landing_String</t>
+          <t>POOH 26'' BHA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="D29" t="n">
-        <v>274.3454105906515</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E29" t="n">
-        <v>5.41</v>
+        <v>3.45</v>
       </c>
       <c r="F29" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="G29" t="n">
-        <v>11.13</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Drill 26'' Hole</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tripping_36_Casing_on_Landing_String_OH</t>
+          <t>Break Off BHA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>46.66666666666666</v>
+        <v>0.2439909296862088</v>
       </c>
       <c r="E30" t="n">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G30" t="n">
-        <v>11.69</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Circulation</t>
+          <t>Rig_up_for_Casing</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G31" t="n">
-        <v>11.74</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cement Conductor Casing</t>
+          <t>Run_Check_Float_Fun_20_Casing</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="F32" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G32" t="n">
-        <v>11.86</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Wait on Cement</t>
+          <t>Run 20'' Casing</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05555555555555555</v>
+        <v>3.136363635262502</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>10.84</v>
       </c>
       <c r="F33" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="G33" t="n">
-        <v>12.61</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Release Cart Tool and POOH</t>
+          <t>M_Up_HPWHH_Run_Inner_String_Engage_Cart_to_HPWHH</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2115</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>424.6051882298284</v>
+        <v>0.2352941176921748</v>
       </c>
       <c r="E34" t="n">
-        <v>4.98</v>
+        <v>4.25</v>
       </c>
       <c r="F34" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="G34" t="n">
-        <v>12.82</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Run Conductor Casing</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B_Off_Cart_Tool_PO_Inner_String</t>
+          <t>Tripping_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3999999998696148</v>
+        <v>206.1859351426755</v>
       </c>
       <c r="E35" t="n">
-        <v>2.5</v>
+        <v>3.23</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G35" t="n">
-        <v>12.92</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Tripping_Casing_on_Landing_String_OH</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6219047620498154</v>
+        <v>132.7857140791436</v>
       </c>
       <c r="E36" t="n">
-        <v>1.61</v>
+        <v>3.01</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G36" t="n">
-        <v>12.99</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Make Up Mud Motor, MWD BHA</t>
+          <t>Cementing 20'' Casing</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2183540723733117</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>4.58</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="n">
-        <v>13.18</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RIH 26'' BHA</t>
+          <t>Wait on Cement</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2145</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>424.6051882298284</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>5.05</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="n">
-        <v>13.39</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RIH with wash down and Tag cement</t>
+          <t>Release_Cart_from_HPWHH</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>146.9999999962747</v>
+        <v>3.890410942314198</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F39" t="n">
         <v>0.01</v>
       </c>
       <c r="G39" t="n">
-        <v>13.4</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>Run 20'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drill Cement &amp; clear rat hole</t>
+          <t>POOH Cart Tool to surface</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>1065</v>
       </c>
       <c r="D40" t="n">
-        <v>5.666666666666667</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E40" t="n">
-        <v>8.82</v>
+        <v>2.51</v>
       </c>
       <c r="F40" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>13.77</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Drill 26''</t>
+          <t>Rig_up_for_riser_handling</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>14.34855769203052</v>
+        <v>0.1656565656386063</v>
       </c>
       <c r="E41" t="n">
-        <v>38.33</v>
+        <v>6.04</v>
       </c>
       <c r="F41" t="n">
-        <v>1.6</v>
+        <v>0.25</v>
       </c>
       <c r="G41" t="n">
-        <v>15.36</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wiper Trip</t>
+          <t>Run_BOP_Splash_Zone</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04143049962285366</v>
+        <v>0.3999999998696148</v>
       </c>
       <c r="E42" t="n">
-        <v>24.14</v>
+        <v>2.5</v>
       </c>
       <c r="F42" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>16.37</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Circulate</t>
+          <t>Run BOP on Riser</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3096.194321283745</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n">
-        <v>1428.571428571429</v>
+        <v>3.156647466761856</v>
       </c>
       <c r="E43" t="n">
-        <v>2.17</v>
+        <v>12.35</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="G43" t="n">
-        <v>16.46</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>POOH 26'' BHA</t>
+          <t>Pressure Test Choke, Kill, Boost &amp; Conduit Lines</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2745</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>424.6051882298284</v>
+        <v>0.4943056944223542</v>
       </c>
       <c r="E44" t="n">
-        <v>6.46</v>
+        <v>6.07</v>
       </c>
       <c r="F44" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="G44" t="n">
-        <v>16.73</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Drill 26'' Hole</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Break Off BHA</t>
+          <t>Run_Slip_Jt_Landing_Jt</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2439909296862088</v>
+        <v>0.36363636374412</v>
       </c>
       <c r="E45" t="n">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="F45" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G45" t="n">
-        <v>16.9</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rig_up_for_Casing</t>
+          <t>Install_C_K_B_C_Goosenecks</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3999999998696148</v>
       </c>
       <c r="E46" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>16.99</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Run_Check_Float_Fun_20_Casing</t>
+          <t>Pressure Test Choke, Kill &amp; Boost Goosenecks</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4943056944223542</v>
       </c>
       <c r="E47" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G47" t="n">
-        <v>17.09</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Run 20'' Casing</t>
+          <t>Install_Saddle_Loops_Engage_MRT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>3.136363635262502</v>
+        <v>0.3076923076151567</v>
       </c>
       <c r="E48" t="n">
-        <v>16.9</v>
+        <v>3.25</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7</v>
+        <v>0.14</v>
       </c>
       <c r="G48" t="n">
-        <v>17.79</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M_Up_HPWHH_Run_Inner_String_Engage_Cart_to_HPWHH</t>
+          <t>Land &amp; Latch BOP. Carry Out Pick up and Slump Test</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2352941176921748</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E49" t="n">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="F49" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="G49" t="n">
-        <v>17.97</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String</t>
+          <t>Pressure Test Connector. Stroke out Slip Jt &amp; Lay Dn Landing Jt</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1485</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>206.1859351426755</v>
+        <v>0.5000000002037268</v>
       </c>
       <c r="E50" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="G50" t="n">
-        <v>18.27</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String_OH</t>
+          <t>Install_Diverter</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>132.7857140791436</v>
+        <v>0.2857142855812396</v>
       </c>
       <c r="E51" t="n">
-        <v>4.74</v>
+        <v>3.5</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G51" t="n">
-        <v>18.47</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>BOP Lowering</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cementing 20'' Casing</t>
+          <t>Rig Down Spider &amp; Gimbal</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.166666666666667</v>
+        <v>1.000000001629815</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="G52" t="n">
-        <v>18.72</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wait on Cement</t>
+          <t>slip_and_cut</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.4012626261785286</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>2.49</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G53" t="n">
-        <v>19.22</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Release_Cart_from_HPWHH</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>3.890410942314198</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E54" t="n">
-        <v>0.26</v>
+        <v>1.61</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>19.23</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Run 20'' Casing &amp; Cement</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>POOH Cart Tool to surface</t>
+          <t>Surface Equipment Pressure Test</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2115</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>424.6051882298284</v>
+        <v>0.4000000001303851</v>
       </c>
       <c r="E55" t="n">
-        <v>4.98</v>
+        <v>2.5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>19.44</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rig_up_for_riser_handling</t>
+          <t>Make up LWD BHA</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1656565656386063</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E56" t="n">
-        <v>6.04</v>
+        <v>4.58</v>
       </c>
       <c r="F56" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="G56" t="n">
-        <v>19.69</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Run_BOP_Splash_Zone</t>
+          <t>Run 17-1/2'' BHA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>1415</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3999999998696148</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E57" t="n">
-        <v>2.5</v>
+        <v>3.33</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="G57" t="n">
-        <v>19.79</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Run BOP on Riser</t>
+          <t>BOP Pressure Test</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>3.156647466761856</v>
+        <v>0.15384615383651</v>
       </c>
       <c r="E58" t="n">
-        <v>24.71</v>
+        <v>6.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1.03</v>
+        <v>0.27</v>
       </c>
       <c r="G58" t="n">
-        <v>20.82</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pressure Test Choke, Kill, Boost &amp; Conduit Lines</t>
+          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4943056944223542</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E59" t="n">
-        <v>10.12</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="G59" t="n">
-        <v>21.24</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Run_Slip_Jt_Landing_Jt</t>
+          <t>Drill_Shoe_Track_LOT</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.36363636374412</v>
+        <v>0.06760804449933652</v>
       </c>
       <c r="E60" t="n">
-        <v>2.75</v>
+        <v>14.79</v>
       </c>
       <c r="F60" t="n">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
       <c r="G60" t="n">
-        <v>21.36</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Install_C_K_B_C_Goosenecks</t>
+          <t>Fingerprint_Flow_Back</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3999999998696148</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G61" t="n">
-        <v>21.46</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pressure Test Choke, Kill &amp; Boost Goosenecks</t>
+          <t>Drill 17.5''</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4943056944223542</v>
+        <v>10.3744279622345</v>
       </c>
       <c r="E62" t="n">
-        <v>2.02</v>
+        <v>3.37</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G62" t="n">
-        <v>21.55</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Install_Saddle_Loops_Engage_MRT</t>
+          <t>Wiper Trip</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3076923076151567</v>
+        <v>0.9228635138053671</v>
       </c>
       <c r="E63" t="n">
-        <v>3.25</v>
+        <v>1.08</v>
       </c>
       <c r="F63" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="G63" t="n">
-        <v>21.68</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Land &amp; Latch BOP. Carry Out Pick up and Slump Test</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>1562.058682</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6666666666666666</v>
+        <v>1223.917693211388</v>
       </c>
       <c r="E64" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="F64" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G64" t="n">
-        <v>21.74</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Drill 17.5'' Hole</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pressure Test Connector. Stroke out Slip Jt &amp; Lay Dn Landing Jt</t>
+          <t>POOH</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5000000002037268</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3.53</v>
       </c>
       <c r="F65" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="G65" t="n">
-        <v>21.83</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Install_Diverter</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2857142855812396</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E66" t="n">
-        <v>3.5</v>
+        <v>72</v>
       </c>
       <c r="F66" t="n">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>21.97</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BOP Lowering</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rig Down Spider &amp; Gimbal</t>
+          <t>Retrieve Wear Bush</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1.000000001629815</v>
+        <v>0.1425227273483795</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>7.02</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="G67" t="n">
-        <v>22.01</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>Rig_up_for_Casing</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4012626261785286</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E68" t="n">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G68" t="n">
-        <v>22.12</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Run_Check_Float_Fun_13.625_Casing</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.5000000002037268</v>
       </c>
       <c r="E69" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G69" t="n">
-        <v>22.18</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Surface Equipment Pressure Test</t>
+          <t>Run 13.375'' Casing</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4000000001303851</v>
+        <v>10.7999999964796</v>
       </c>
       <c r="E70" t="n">
-        <v>2.5</v>
+        <v>3.43</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="G70" t="n">
-        <v>22.29</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Make up Dumb Iron BHA</t>
+          <t>Tripping_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>1065</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2183540723733117</v>
+        <v>206.1859351426755</v>
       </c>
       <c r="E71" t="n">
-        <v>4.58</v>
+        <v>5.17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="G71" t="n">
-        <v>22.48</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Run 17-1/2'' BHA</t>
+          <t>Land_Latch_Casing_Indexing_Pick_up_test</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2695</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>424.6051882298284</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E72" t="n">
-        <v>6.35</v>
+        <v>3.8</v>
       </c>
       <c r="F72" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="G72" t="n">
-        <v>22.74</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOP Pressure Test</t>
+          <t>Cementing_13-3/8_in</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15384615383651</v>
+        <v>0.1250000000127329</v>
       </c>
       <c r="E73" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="G73" t="n">
-        <v>23.02</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>Set_Seal_Assembly</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>146.9999999962747</v>
+        <v>0.5714285711624792</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2</v>
+        <v>1.75</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>23.02</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Release_PADPRT_L_Dn_Cement_Head</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06760804449933652</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E75" t="n">
-        <v>14.79</v>
+        <v>1.5</v>
       </c>
       <c r="F75" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="G75" t="n">
-        <v>23.64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RIH dumb iron BHA and Carry out LOT</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>POOH PADPRT to surface</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2750</v>
+        <v>1065</v>
       </c>
       <c r="D76" t="n">
         <v>424.6051882298284</v>
       </c>
       <c r="E76" t="n">
-        <v>6.48</v>
+        <v>2.51</v>
       </c>
       <c r="F76" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>23.91</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2519,2707 +2519,1087 @@
         <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>24.01</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Run 13.375'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>Set Wear Bush at Wellhead</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.1425227273483795</v>
       </c>
       <c r="E78" t="n">
-        <v>1.61</v>
+        <v>7.02</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="G78" t="n">
-        <v>24.08</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Surface Equipment Pressure Test</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4000000001303851</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E79" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>24.18</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Make up LWD BHA</t>
+          <t>Lay_Dn_Cement_Head</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2183540723733117</v>
+        <v>0.6999999999348074</v>
       </c>
       <c r="E80" t="n">
-        <v>4.58</v>
+        <v>1.43</v>
       </c>
       <c r="F80" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="G80" t="n">
-        <v>24.38</v>
+        <v>19.63</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Run 12.25'' BHA</t>
+          <t>Make up LWD BHA</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2695</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>424.6051882298284</v>
+        <v>0.2183540723733117</v>
       </c>
       <c r="E81" t="n">
-        <v>6.35</v>
+        <v>4.58</v>
       </c>
       <c r="F81" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="G81" t="n">
-        <v>24.64</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BOP Pressure Test</t>
+          <t>Run 12.25'' BHA</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D82" t="n">
-        <v>0.15384615383651</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E82" t="n">
-        <v>6.5</v>
+        <v>2.83</v>
       </c>
       <c r="F82" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="G82" t="n">
-        <v>24.91</v>
+        <v>19.94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>BOP_Function_Test</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>146.9999999962747</v>
+        <v>1.666666663407038</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G83" t="n">
-        <v>24.92</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Choke_Drill</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06760804449933652</v>
+        <v>0.7999999989569188</v>
       </c>
       <c r="E84" t="n">
-        <v>14.79</v>
+        <v>1.25</v>
       </c>
       <c r="F84" t="n">
-        <v>0.62</v>
+        <v>0.05</v>
       </c>
       <c r="G84" t="n">
-        <v>25.54</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fingerprint_Flow_Back</t>
+          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D85" t="n">
-        <v>1.333333333333333</v>
+        <v>146.9999999962747</v>
       </c>
       <c r="E85" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="F85" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G85" t="n">
-        <v>25.57</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Drill 12.25''</t>
+          <t>Drill_Shoe_Track_LOT</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>7.39276608074035</v>
+        <v>0.06760804449933652</v>
       </c>
       <c r="E86" t="n">
-        <v>49.1</v>
+        <v>14.79</v>
       </c>
       <c r="F86" t="n">
-        <v>2.05</v>
+        <v>0.62</v>
       </c>
       <c r="G86" t="n">
-        <v>27.61</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Coring at depth 2915</t>
+          <t>Fingerprint_Flow_Back</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03277210197673476</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E87" t="n">
-        <v>30.51</v>
+        <v>0.75</v>
       </c>
       <c r="F87" t="n">
-        <v>1.27</v>
+        <v>0.03</v>
       </c>
       <c r="G87" t="n">
-        <v>28.88</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>Drill 12.25''</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2755</v>
+        <v>290</v>
       </c>
       <c r="D88" t="n">
-        <v>424.6051882298284</v>
+        <v>7.39276608074035</v>
       </c>
       <c r="E88" t="n">
-        <v>6.49</v>
+        <v>39.23</v>
       </c>
       <c r="F88" t="n">
-        <v>0.27</v>
+        <v>1.63</v>
       </c>
       <c r="G88" t="n">
-        <v>29.15</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wireline Logging</t>
+          <t>Coring at depth 1600</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.0465902994833774</v>
       </c>
       <c r="E89" t="n">
-        <v>72</v>
+        <v>21.46</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>0.89</v>
       </c>
       <c r="G89" t="n">
-        <v>32.15</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>wiper_trip</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.2387949628064218</v>
       </c>
       <c r="E90" t="n">
-        <v>1.61</v>
+        <v>4.19</v>
       </c>
       <c r="F90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G90" t="n">
-        <v>32.22</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Make up MWD BHA</t>
+          <t>Circulate</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>1408.910145</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2183540723733117</v>
+        <v>823.036595790584</v>
       </c>
       <c r="E91" t="n">
-        <v>4.58</v>
+        <v>1.71</v>
       </c>
       <c r="F91" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>32.41</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Run 17.5'' BHA</t>
+          <t>POOH 12.25'' BHA to casing shoe</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2745</v>
+        <v>300</v>
       </c>
       <c r="D92" t="n">
-        <v>424.6051882298284</v>
+        <v>144.6351301798587</v>
       </c>
       <c r="E92" t="n">
-        <v>6.46</v>
+        <v>2.07</v>
       </c>
       <c r="F92" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="G92" t="n">
-        <v>32.68</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Enlarge 12.25'' Hole to 17.5''</t>
+          <t>POOH 12.25'' BHA to surface</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>373</v>
+        <v>1200</v>
       </c>
       <c r="D93" t="n">
-        <v>31.12328388670349</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E93" t="n">
-        <v>11.98</v>
+        <v>2.83</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G93" t="n">
-        <v>33.18</v>
+        <v>23.65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Drill 12.25'' Hole</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Wiper Trip</t>
+          <t>Break Off BHA</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2115039363199976</v>
+        <v>0.2439909296862088</v>
       </c>
       <c r="E94" t="n">
-        <v>4.73</v>
+        <v>4.1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G94" t="n">
-        <v>33.38</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Circulate</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3201.1474396</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1223.917693211388</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E95" t="n">
-        <v>2.62</v>
+        <v>96</v>
       </c>
       <c r="F95" t="n">
-        <v>0.11</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>33.49</v>
+        <v>27.82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Enlarge Pilot Hole</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>POOH</t>
+          <t>Roundtrip for logging</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3118</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>424.6051882298284</v>
+        <v>0.136907869723496</v>
       </c>
       <c r="E96" t="n">
-        <v>7.34</v>
+        <v>7.3</v>
       </c>
       <c r="F96" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="G96" t="n">
-        <v>33.79</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Wireline Logging</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Retrieve Wear Bush</t>
+          <t>Wireline_Logging_part_2</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08359669254473748</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E97" t="n">
-        <v>11.96</v>
+        <v>96</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>34.29</v>
+        <v>32.13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Rig_up_for_Casing</t>
+          <t>Roundtrip for Casing Lowering</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.136907869723496</v>
       </c>
       <c r="E98" t="n">
-        <v>2.25</v>
+        <v>7.3</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="G98" t="n">
-        <v>34.39</v>
+        <v>32.43</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Run_Check_Float_Fun_13.625_Casing</t>
+          <t>Retrieve Wear Bush</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5000000002037268</v>
+        <v>0.1425227273483795</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>7.02</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="G99" t="n">
-        <v>34.47</v>
+        <v>32.72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing</t>
+          <t>Change_Pipe_Handler</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>10.7999999964796</v>
+        <v>0.6219047620498154</v>
       </c>
       <c r="E100" t="n">
-        <v>7.78</v>
+        <v>1.61</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>34.79</v>
+        <v>32.79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tripping_Casing_on_Landing_String</t>
+          <t>Run_Check_Float_Fun_9.625_Casing</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2115</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>206.1859351426755</v>
+        <v>0.5000000002037268</v>
       </c>
       <c r="E101" t="n">
-        <v>10.26</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
       <c r="G101" t="n">
-        <v>35.22</v>
+        <v>32.87</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Land_Latch_Casing_Indexing_Pick_up_test</t>
+          <t>Run 9-5/8'' Casing</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2631578947368421</v>
+        <v>10.7999999964796</v>
       </c>
       <c r="E102" t="n">
-        <v>3.8</v>
+        <v>5.74</v>
       </c>
       <c r="F102" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="G102" t="n">
-        <v>35.38</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Cementing_13-3/8_in</t>
+          <t>Tripping_Casing_on_Landing_String</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>765</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1250000000127329</v>
+        <v>206.1859351426755</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>3.71</v>
       </c>
       <c r="F103" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="G103" t="n">
-        <v>35.71</v>
+        <v>33.27</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Set_Seal_Assembly</t>
+          <t>Tripping_Casing_on_Landing_String_OH</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5714285711624792</v>
+        <v>132.7857140791436</v>
       </c>
       <c r="E104" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="F104" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G104" t="n">
-        <v>35.78</v>
+        <v>33.36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Release_PADPRT_L_Dn_Cement_Head</t>
+          <t>Cementing_9-5/8_in</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1250000000127329</v>
       </c>
       <c r="E105" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="G105" t="n">
-        <v>35.85</v>
+        <v>33.69</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>POOH PADPRT to surface</t>
+          <t>Set_Seal_Assembly</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2115</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>424.6051882298284</v>
+        <v>0.5714285711624792</v>
       </c>
       <c r="E106" t="n">
-        <v>4.98</v>
+        <v>1.75</v>
       </c>
       <c r="F106" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>36.05</v>
+        <v>33.77</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>slip_and_cut</t>
+          <t>Release_PADPRT_L_Dn_Cement_Head</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4012626261785286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E107" t="n">
-        <v>2.49</v>
+        <v>1.5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G107" t="n">
-        <v>36.16</v>
+        <v>33.83</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Run 13.375'' Casing &amp; Cement</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Set Wear Bush at Wellhead</t>
+          <t>POOH PADPRT to surface</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>1065</v>
       </c>
       <c r="D108" t="n">
-        <v>0.08359669254473748</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E108" t="n">
-        <v>11.96</v>
+        <v>2.51</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>36.66</v>
+        <v>33.93</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Change_Pipe_Handler</t>
+          <t>slip_and_cut</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6219047620498154</v>
+        <v>0.4012626261785286</v>
       </c>
       <c r="E109" t="n">
-        <v>1.61</v>
+        <v>2.49</v>
       </c>
       <c r="F109" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>36.72</v>
+        <v>34.04</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Run 9-5/8'' Casing &amp; Cement</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lay_Dn_Cement_Head</t>
+          <t>Set Wear Bush at Wellhead</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6999999999348074</v>
+        <v>0.1425227273483795</v>
       </c>
       <c r="E110" t="n">
-        <v>1.43</v>
+        <v>7.02</v>
       </c>
       <c r="F110" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="G110" t="n">
-        <v>36.78</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Make up LWD BHA</t>
+          <t>RIH Tandem Scraper from surface to Scraping depth</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2183540723733117</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E111" t="n">
-        <v>4.58</v>
+        <v>3.06</v>
       </c>
       <c r="F111" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="G111" t="n">
-        <v>36.97</v>
+        <v>34.46</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Run 12.25'' BHA</t>
+          <t>Scrape Casing</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2818</v>
+        <v>500</v>
       </c>
       <c r="D112" t="n">
-        <v>424.6051882298284</v>
+        <v>144.6351301798587</v>
       </c>
       <c r="E112" t="n">
-        <v>6.64</v>
+        <v>3.46</v>
       </c>
       <c r="F112" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="G112" t="n">
-        <v>37.25</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BOP_Function_Test</t>
+          <t>POOH Tandem Scraping BHA</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>1800</v>
       </c>
       <c r="D113" t="n">
-        <v>1.666666663407038</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6</v>
+        <v>4.24</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="G113" t="n">
-        <v>37.28</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Choke_Drill</t>
+          <t>Record CBL VDL Log</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7999999989569188</v>
+        <v>0.04166666666836439</v>
       </c>
       <c r="E114" t="n">
-        <v>1.25</v>
+        <v>24</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>37.33</v>
+        <v>35.78</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
+          <t>Run Mule Shoe for hermetical and inflow test</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="D115" t="n">
-        <v>146.9999999962747</v>
+        <v>424.6051882298284</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2</v>
+        <v>4.24</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="G115" t="n">
-        <v>37.34</v>
+        <v>35.96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Drill_Shoe_Track_LOT</t>
+          <t>Changeover Well Volume from WBM to sea water</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>1222.39275</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06760804449933652</v>
+        <v>324.5778124244557</v>
       </c>
       <c r="E116" t="n">
-        <v>14.79</v>
+        <v>3.77</v>
       </c>
       <c r="F116" t="n">
-        <v>0.62</v>
+        <v>0.16</v>
       </c>
       <c r="G116" t="n">
-        <v>37.95</v>
+        <v>36.11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Drill 12.25'' Hole</t>
+          <t>Scraping, CBL-VDL &amp; Hermetical</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fingerprint_Flow_Back</t>
+          <t>Carry out Inflow &amp; Hermetical Test</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1.333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E117" t="n">
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="G117" t="n">
-        <v>37.98</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Drill 12.25''</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>797</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.39276608074035</v>
-      </c>
-      <c r="E118" t="n">
-        <v>107.81</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="G118" t="n">
-        <v>42.48</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Coring at depth 3635</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.02357512115132686</v>
-      </c>
-      <c r="E119" t="n">
-        <v>42.42</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G119" t="n">
-        <v>44.24</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>wiper_trip</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.09778062223750149</v>
-      </c>
-      <c r="E120" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G120" t="n">
-        <v>44.67</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Circulate</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>2933.559415</v>
-      </c>
-      <c r="D121" t="n">
-        <v>823.036595790584</v>
-      </c>
-      <c r="E121" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G121" t="n">
-        <v>44.82</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>POOH 12.25'' BHA to casing shoe</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>807</v>
-      </c>
-      <c r="D122" t="n">
-        <v>144.6351301798587</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G122" t="n">
-        <v>45.05</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>POOH 12.25'' BHA to surface</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D123" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G123" t="n">
-        <v>45.33</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Drill 12.25'' Hole</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Break Off BHA</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.2439909296862088</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G124" t="n">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="E125" t="n">
-        <v>96</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4</v>
-      </c>
-      <c r="G125" t="n">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Roundtrip for logging</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.06763902189379657</v>
-      </c>
-      <c r="E126" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G126" t="n">
-        <v>50.11</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Wireline_Logging_part_2</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="E127" t="n">
-        <v>96</v>
-      </c>
-      <c r="F127" t="n">
-        <v>4</v>
-      </c>
-      <c r="G127" t="n">
-        <v>54.11</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Roundtrip for Casing Lowering</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.06763902189379657</v>
-      </c>
-      <c r="E128" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G128" t="n">
-        <v>54.73</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Retrieve Wear Bush</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.08359669254473748</v>
-      </c>
-      <c r="E129" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G129" t="n">
-        <v>55.23</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Change_Pipe_Handler</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.6219047620498154</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G130" t="n">
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Run_Check_Float_Fun_9.625_Casing</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.5000000002037268</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G131" t="n">
-        <v>55.38</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>151</v>
-      </c>
-      <c r="D132" t="n">
-        <v>10.7999999964796</v>
-      </c>
-      <c r="E132" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G132" t="n">
-        <v>55.96</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Tripping_Casing_on_Landing_String</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1308</v>
-      </c>
-      <c r="D133" t="n">
-        <v>206.1859351426755</v>
-      </c>
-      <c r="E133" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G133" t="n">
-        <v>56.23</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Tripping_Casing_on_Landing_String_OH</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>807</v>
-      </c>
-      <c r="D134" t="n">
-        <v>132.7857140791436</v>
-      </c>
-      <c r="E134" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G134" t="n">
-        <v>56.48</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Cementing_9-5/8_in</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.1250000000127329</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G135" t="n">
-        <v>56.81</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Set_Seal_Assembly</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.5714285711624792</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>56.89</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Release_PADPRT_L_Dn_Cement_Head</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G137" t="n">
-        <v>56.95</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>POOH PADPRT to surface</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>2115</v>
-      </c>
-      <c r="D138" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G138" t="n">
-        <v>57.16</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>slip_and_cut</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.4012626261785286</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>57.26</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Run 9-5/8'' Casing &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Set Wear Bush at Wellhead</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.08359669254473748</v>
-      </c>
-      <c r="E140" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G140" t="n">
-        <v>57.76</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Change_Pipe_Handler</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.6219047620498154</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G141" t="n">
-        <v>57.82</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Make up LWD BHA</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.2183540723733117</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G142" t="n">
-        <v>58.02</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Run 8.5'' BHA</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>3625</v>
-      </c>
-      <c r="D143" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E143" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G143" t="n">
-        <v>58.37</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>BOP_Pressure_Test</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.15384615383651</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G144" t="n">
-        <v>58.64</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Choke_Drill</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.7999999989569188</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G145" t="n">
-        <v>58.69</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Continue RIH with Wash Dn &amp; Tag Cement</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>30</v>
-      </c>
-      <c r="D146" t="n">
-        <v>146.9999999962747</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G146" t="n">
-        <v>58.7</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Drill_Shoe_Track_LOT</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.06760804449933652</v>
-      </c>
-      <c r="E147" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G147" t="n">
-        <v>59.32</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Fingerprint_Flow_Back</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G148" t="n">
-        <v>59.35</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Drill 8.5''</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>1090</v>
-      </c>
-      <c r="D149" t="n">
-        <v>7.39276608074035</v>
-      </c>
-      <c r="E149" t="n">
-        <v>147.44</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="G149" t="n">
-        <v>65.48999999999999</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Coring at depth 4275</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.02004392226982393</v>
-      </c>
-      <c r="E150" t="n">
-        <v>49.89</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G150" t="n">
-        <v>67.56999999999999</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Coring at depth 4925</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.01856509238968879</v>
-      </c>
-      <c r="E151" t="n">
-        <v>53.86</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G151" t="n">
-        <v>69.81999999999999</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>wiper_trip</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.05500354100262589</v>
-      </c>
-      <c r="E152" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G152" t="n">
-        <v>70.56999999999999</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Circulate</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>2622.36015</v>
-      </c>
-      <c r="D153" t="n">
-        <v>288.5136110439606</v>
-      </c>
-      <c r="E153" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G153" t="n">
-        <v>70.95</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>POOH 12.25'' BHA to casing shoe</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D154" t="n">
-        <v>144.6351301798587</v>
-      </c>
-      <c r="E154" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G154" t="n">
-        <v>71.27</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>POOH 12.25'' BHA to surface</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>3625</v>
-      </c>
-      <c r="D155" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E155" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G155" t="n">
-        <v>71.63</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Drill 8.5'' Hole</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Break Off BHA</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.2439909296862088</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G156" t="n">
-        <v>71.8</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Basic Logs</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="E157" t="n">
-        <v>96</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4</v>
-      </c>
-      <c r="G157" t="n">
-        <v>75.8</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Roundtrip for logging</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.05392938583556325</v>
-      </c>
-      <c r="E158" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G158" t="n">
-        <v>76.56999999999999</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Wireline Logging</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Advance_Logging</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="E159" t="n">
-        <v>96</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4</v>
-      </c>
-      <c r="G159" t="n">
-        <v>80.56999999999999</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Roundtrip for Casing Lowering</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.05392938583556325</v>
-      </c>
-      <c r="E160" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G160" t="n">
-        <v>81.34</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Change_Pipe_Handler</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.6219047620498154</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G161" t="n">
-        <v>81.41</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Run_Check_Float_Fun_7''_Liner</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.5000000002037268</v>
-      </c>
-      <c r="E162" t="n">
-        <v>2</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G162" t="n">
-        <v>81.48999999999999</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>105</v>
-      </c>
-      <c r="D163" t="n">
-        <v>10.7999999964796</v>
-      </c>
-      <c r="E163" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G163" t="n">
-        <v>81.90000000000001</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Tripping_Casing_on_Landing_String</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>2675</v>
-      </c>
-      <c r="D164" t="n">
-        <v>206.1859351426755</v>
-      </c>
-      <c r="E164" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G164" t="n">
-        <v>82.44</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Tripping_Casing_on_Landing_String_OH</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D165" t="n">
-        <v>132.7857140791436</v>
-      </c>
-      <c r="E165" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G165" t="n">
-        <v>82.78</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Cementing_7'' Liner</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.1250000000127329</v>
-      </c>
-      <c r="E166" t="n">
-        <v>8</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G166" t="n">
-        <v>83.12</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Set_Liner_Hanger_Seal</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.5714285711624792</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>83.19</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Release_Liner_Hanger_Running_Tool</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G168" t="n">
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>POOH Liner Hanger Running Tool to surface</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>2115</v>
-      </c>
-      <c r="D169" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E169" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G169" t="n">
-        <v>83.45999999999999</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Run 7'' Liner &amp; Cement</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>slip_and_cut</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.4012626261785286</v>
-      </c>
-      <c r="E170" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>83.56</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>RIH Tandem Scraper from surface to Scraping depth</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>3425</v>
-      </c>
-      <c r="D171" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E171" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G171" t="n">
-        <v>83.90000000000001</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Scrape Casing</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D172" t="n">
-        <v>144.6351301798587</v>
-      </c>
-      <c r="E172" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G172" t="n">
-        <v>84.36</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>POOH Tandem Scraping BHA</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>5025</v>
-      </c>
-      <c r="D173" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E173" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G173" t="n">
-        <v>84.84999999999999</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Record CBL VDL Log</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.04166666666836439</v>
-      </c>
-      <c r="E174" t="n">
-        <v>24</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1</v>
-      </c>
-      <c r="G174" t="n">
-        <v>85.84999999999999</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Run Mule Shoe for hermetical and inflow test</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>5025</v>
-      </c>
-      <c r="D175" t="n">
-        <v>424.6051882298284</v>
-      </c>
-      <c r="E175" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G175" t="n">
-        <v>86.34999999999999</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Changeover Well Volume from WBM to sea water</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>2622.36015</v>
-      </c>
-      <c r="D176" t="n">
-        <v>324.5778124244557</v>
-      </c>
-      <c r="E176" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G176" t="n">
-        <v>86.68000000000001</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Scraping, CBL-VDL &amp; Hermetical</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Carry out Inflow &amp; Hermetical Test</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E177" t="n">
-        <v>7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G177" t="n">
-        <v>86.97</v>
+        <v>36.4</v>
       </c>
     </row>
   </sheetData>
